--- a/Document/요구사항 정의서.xlsx
+++ b/Document/요구사항 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkiho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C46411A-31C4-49F0-8188-F805C0F50675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB815A31-691C-44E3-9173-BD1D09F1D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
   <si>
     <t>요구사항
  정의서</t>
@@ -530,6 +530,22 @@
   <si>
     <t>SR006</t>
   </si>
+  <si>
+    <t>김기호</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>오준택</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성남</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경훈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -538,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -650,6 +666,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="새굴림"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -770,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,103 +804,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:K457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1140,114 +1149,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="28">
+      <c r="B3" s="26"/>
+      <c r="C3" s="35">
         <v>45531</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="13.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1256,21 +1264,22 @@
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="36" t="s">
+        <v>125</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1279,18 +1288,19 @@
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="35"/>
+      <c r="H8" s="36" t="s">
+        <v>125</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1302,102 +1312,112 @@
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="36" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="36" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="36" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="36" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1406,79 +1426,87 @@
       <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1490,122 +1518,134 @@
       <c r="G18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1614,266 +1654,292 @@
       <c r="G24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="21"/>
+      <c r="H36" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1882,18 +1948,20 @@
       <c r="G37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -1902,18 +1970,20 @@
       <c r="G38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -1922,18 +1992,20 @@
       <c r="G39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="8" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1942,18 +2014,20 @@
       <c r="G40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="21"/>
+      <c r="H40" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -1962,18 +2036,20 @@
       <c r="G41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="21"/>
+      <c r="H41" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -1982,7 +2058,9 @@
       <c r="G42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="40.049999999999997" customHeight="1"/>
     <row r="44" spans="1:8" ht="40.049999999999997" customHeight="1"/>
@@ -2401,6 +2479,18 @@
     <row r="457" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="A26:A42"/>
     <mergeCell ref="B17:B18"/>
@@ -2408,18 +2498,6 @@
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="A17:A25"/>
     <mergeCell ref="B27:B36"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="F7:H12 F13:G42">
